--- a/www.eia.gov/electricity/monthly/xls/table_2_12_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_12_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Table 2.12.A. Consumption of Landfill Gas for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Million Cubic Feet)</t>
+    <t>November 2016 and November 2015 (Million Cubic Feet)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -67,10 +67,10 @@
     <t>New England</t>
   </si>
   <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>NM</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
   </si>
   <si>
     <t>Maine</t>
@@ -1356,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="13">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="D6" s="14">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="13">
-        <v>1041</v>
+        <v>932</v>
       </c>
       <c r="H6" s="13">
-        <v>900</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
+        <v>888</v>
+      </c>
+      <c r="I6" s="13">
+        <v>68</v>
       </c>
       <c r="J6" s="13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -1391,16 +1391,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="16">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="16">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="16">
         <v>74</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="16">
         <v>74</v>
@@ -1470,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C9" s="16">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D9" s="17">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="H9" s="16">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C10" s="16">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D10" s="17">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="16">
-        <v>99</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="I10" s="16">
+        <v>68</v>
       </c>
       <c r="J10" s="16">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="16">
         <v>0</v>
@@ -1546,25 +1546,25 @@
         <v>19</v>
       </c>
       <c r="B11" s="16">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C11" s="16">
+        <v>311</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
         <v>309</v>
       </c>
-      <c r="D11" s="17">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>293</v>
-      </c>
       <c r="H11" s="16">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>5245</v>
+        <v>5068</v>
       </c>
       <c r="C13" s="13">
-        <v>4706</v>
+        <v>4805</v>
       </c>
       <c r="D13" s="14">
-        <v>0.11</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,22 +1637,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>4980</v>
+        <v>4828</v>
       </c>
       <c r="H13" s="13">
-        <v>4504</v>
+        <v>4588</v>
       </c>
       <c r="I13" s="13">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="J13" s="13">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="13">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L13" s="13">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>996</v>
+        <v>832</v>
       </c>
       <c r="C14" s="16">
-        <v>863</v>
+        <v>757</v>
       </c>
       <c r="D14" s="17">
-        <v>0.15</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>949</v>
+        <v>794</v>
       </c>
       <c r="H14" s="16">
-        <v>834</v>
+        <v>731</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>1708</v>
+        <v>1499</v>
       </c>
       <c r="C15" s="16">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="D15" s="17">
-        <v>0.23</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>1708</v>
+        <v>1499</v>
       </c>
       <c r="H15" s="16">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>2540</v>
+        <v>2738</v>
       </c>
       <c r="C16" s="16">
-        <v>2449</v>
+        <v>2659</v>
       </c>
       <c r="D16" s="17">
-        <v>3.6999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>2322</v>
+        <v>2535</v>
       </c>
       <c r="H16" s="16">
-        <v>2275</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
+        <v>2468</v>
+      </c>
+      <c r="I16" s="16">
+        <v>65</v>
       </c>
       <c r="J16" s="16">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K16" s="16">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L16" s="16">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>7007</v>
+        <v>6359</v>
       </c>
       <c r="C17" s="13">
-        <v>5697</v>
+        <v>5256</v>
       </c>
       <c r="D17" s="14">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E17" s="13">
-        <v>852</v>
+        <v>751</v>
       </c>
       <c r="F17" s="13">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="G17" s="13">
-        <v>6070</v>
+        <v>5529</v>
       </c>
       <c r="H17" s="13">
-        <v>4981</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>14</v>
+        <v>4586</v>
+      </c>
+      <c r="I17" s="13">
+        <v>18</v>
       </c>
       <c r="J17" s="13">
-        <v>21</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="K17" s="13">
+        <v>60</v>
       </c>
       <c r="L17" s="13">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,25 +1812,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>1532</v>
+        <v>1347</v>
       </c>
       <c r="C18" s="16">
-        <v>1245</v>
+        <v>1281</v>
       </c>
       <c r="D18" s="17">
-        <v>0.23</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16">
-        <v>1486</v>
+        <v>1308</v>
       </c>
       <c r="H18" s="16">
-        <v>1211</v>
+        <v>1246</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1850,25 +1850,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>904</v>
+        <v>821</v>
       </c>
       <c r="C19" s="16">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="D19" s="17">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="16">
-        <v>764</v>
+        <v>693</v>
       </c>
       <c r="F19" s="16">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="16">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>2177</v>
+        <v>1926</v>
       </c>
       <c r="C20" s="16">
-        <v>1700</v>
+        <v>1510</v>
       </c>
       <c r="D20" s="17">
         <v>0.28000000000000003</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <v>2177</v>
+        <v>1926</v>
       </c>
       <c r="H20" s="16">
-        <v>1700</v>
+        <v>1510</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>1177</v>
+        <v>1097</v>
       </c>
       <c r="C21" s="16">
-        <v>986</v>
+        <v>935</v>
       </c>
       <c r="D21" s="17">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>1177</v>
+        <v>1097</v>
       </c>
       <c r="H21" s="16">
-        <v>986</v>
+        <v>935</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1964,37 +1964,37 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>1217</v>
+        <v>1167</v>
       </c>
       <c r="C22" s="16">
-        <v>1075</v>
+        <v>874</v>
       </c>
       <c r="D22" s="17">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="16">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1093</v>
+      </c>
+      <c r="H22" s="16">
+        <v>805</v>
+      </c>
+      <c r="I22" s="16">
         <v>18</v>
       </c>
-      <c r="G22" s="16">
-        <v>1118</v>
-      </c>
-      <c r="H22" s="16">
-        <v>990</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="J22" s="16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="16">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,25 +2002,25 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>1337</v>
+        <v>1086</v>
       </c>
       <c r="C23" s="13">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="D23" s="14">
-        <v>0.49</v>
+        <v>0.13</v>
       </c>
       <c r="E23" s="13">
-        <v>496</v>
+        <v>288</v>
       </c>
       <c r="F23" s="13">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="G23" s="13">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="H23" s="13">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2039,14 +2039,14 @@
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>14</v>
+      <c r="B24" s="16">
+        <v>273</v>
       </c>
       <c r="C24" s="16">
-        <v>214</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>215</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.27</v>
       </c>
       <c r="E24" s="16">
         <v>0</v>
@@ -2054,11 +2054,11 @@
       <c r="F24" s="16">
         <v>0</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>14</v>
+      <c r="G24" s="16">
+        <v>273</v>
       </c>
       <c r="H24" s="16">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I24" s="16">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="16">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="16">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I25" s="16">
         <v>0</v>
@@ -2116,25 +2116,25 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="C26" s="16">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="D26" s="17">
-        <v>0.34</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="16">
-        <v>64</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="G26" s="16">
+        <v>274</v>
       </c>
       <c r="H26" s="16">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="I26" s="16">
         <v>0</v>
@@ -2154,25 +2154,25 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="C27" s="16">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D27" s="17">
-        <v>1.62</v>
-      </c>
-      <c r="E27" s="16">
-        <v>205</v>
+        <v>0.81</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F27" s="16">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="16">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I27" s="16">
         <v>0</v>
@@ -2191,20 +2191,20 @@
       <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>14</v>
+      <c r="B28" s="16">
+        <v>125</v>
       </c>
       <c r="C28" s="16">
-        <v>108</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>169</v>
+      </c>
+      <c r="D28" s="17">
+        <v>-0.26</v>
+      </c>
+      <c r="E28" s="16">
+        <v>125</v>
       </c>
       <c r="F28" s="16">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2306,51 +2306,51 @@
         <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>5180</v>
+        <v>4524</v>
       </c>
       <c r="C31" s="13">
-        <v>3997</v>
+        <v>5113</v>
       </c>
       <c r="D31" s="14">
-        <v>0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="E31" s="13">
-        <v>570</v>
+        <v>465</v>
       </c>
       <c r="F31" s="13">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="G31" s="13">
-        <v>4046</v>
+        <v>3572</v>
       </c>
       <c r="H31" s="13">
-        <v>3184</v>
+        <v>4180</v>
       </c>
       <c r="I31" s="13">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="J31" s="13">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="K31" s="13">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="L31" s="13">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>14</v>
+      <c r="B32" s="16">
+        <v>152</v>
       </c>
       <c r="C32" s="16">
-        <v>144</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>146</v>
+      </c>
+      <c r="D32" s="17">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="16">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L32" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,34 +2420,34 @@
         <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="C34" s="16">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="E34" s="16">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G34" s="16">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="H34" s="16">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J34" s="16">
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L34" s="16">
         <v>3</v>
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C35" s="16">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="D35" s="17">
-        <v>0.26</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="H35" s="16">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L35" s="16">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="C36" s="16">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D36" s="17">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" s="16">
-        <v>144</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>14</v>
+        <v>140</v>
+      </c>
+      <c r="I36" s="16">
+        <v>73</v>
       </c>
       <c r="J36" s="16">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K36" s="16">
         <v>0</v>
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>1236</v>
+        <v>1108</v>
       </c>
       <c r="C37" s="16">
-        <v>854</v>
+        <v>1762</v>
       </c>
       <c r="D37" s="17">
-        <v>0.45</v>
+        <v>-0.37</v>
       </c>
       <c r="E37" s="16">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>1045</v>
+        <v>961</v>
       </c>
       <c r="H37" s="16">
-        <v>769</v>
+        <v>1587</v>
       </c>
       <c r="I37" s="16">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="J37" s="16">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="K37" s="16">
         <v>0</v>
@@ -2572,25 +2572,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>641</v>
+        <v>508</v>
       </c>
       <c r="C38" s="16">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D38" s="17">
-        <v>0.34</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E38" s="16">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="F38" s="16">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L38" s="16">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,31 +2610,31 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>1731</v>
+        <v>1472</v>
       </c>
       <c r="C39" s="16">
-        <v>1182</v>
+        <v>1335</v>
       </c>
       <c r="D39" s="17">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G39" s="16">
-        <v>1688</v>
+        <v>1435</v>
       </c>
       <c r="H39" s="16">
-        <v>1155</v>
+        <v>1304</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" s="16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K39" s="16">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2686,25 +2686,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="C41" s="13">
-        <v>427</v>
+        <v>551</v>
       </c>
       <c r="D41" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>14</v>
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="E41" s="13">
+        <v>197</v>
       </c>
       <c r="F41" s="13">
-        <v>173</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>14</v>
+        <v>219</v>
+      </c>
+      <c r="G41" s="13">
+        <v>304</v>
       </c>
       <c r="H41" s="13">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="16">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" s="16">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2761,26 +2761,26 @@
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>14</v>
+      <c r="B43" s="16">
+        <v>213</v>
       </c>
       <c r="C43" s="16">
-        <v>186</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>235</v>
+      </c>
+      <c r="D43" s="17">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="E43" s="16">
+        <v>197</v>
       </c>
       <c r="F43" s="16">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" s="16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I43" s="16">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="16">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" s="16">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="I45" s="16">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>1867</v>
+        <v>1735</v>
       </c>
       <c r="C46" s="13">
-        <v>987</v>
+        <v>1524</v>
       </c>
       <c r="D46" s="14">
-        <v>0.89</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>1774</v>
+        <v>1660</v>
       </c>
       <c r="H46" s="13">
-        <v>951</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>14</v>
+        <v>1467</v>
+      </c>
+      <c r="I46" s="13">
+        <v>75</v>
       </c>
       <c r="J46" s="13">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K46" s="13">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" s="16">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" s="16">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="16">
         <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" s="16">
         <v>27</v>
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>1669</v>
+        <v>1541</v>
       </c>
       <c r="C50" s="16">
-        <v>849</v>
+        <v>1368</v>
       </c>
       <c r="D50" s="17">
-        <v>0.96</v>
+        <v>0.13</v>
       </c>
       <c r="E50" s="16">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G50" s="16">
-        <v>1576</v>
+        <v>1466</v>
       </c>
       <c r="H50" s="16">
-        <v>814</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>14</v>
+        <v>1311</v>
+      </c>
+      <c r="I50" s="16">
+        <v>75</v>
       </c>
       <c r="J50" s="16">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K50" s="16">
         <v>0</v>
@@ -3066,28 +3066,28 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="C51" s="13">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D51" s="14">
-        <v>0.15</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" s="13">
         <v>24</v>
       </c>
       <c r="G51" s="13">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H51" s="13">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" s="13">
         <v>45</v>
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="16">
         <v>86</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" s="16">
         <v>86</v>
@@ -3142,13 +3142,13 @@
         <v>62</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" s="16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" s="16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3180,28 +3180,28 @@
         <v>63</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" s="16">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="16">
         <v>24</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" s="16">
         <v>47</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J54" s="16">
         <v>14</v>
@@ -3256,13 +3256,13 @@
         <v>65</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="16">
         <v>47</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" s="16">
         <v>47</v>
@@ -3331,14 +3331,14 @@
       <c r="A58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>14</v>
+      <c r="B58" s="16">
+        <v>169</v>
       </c>
       <c r="C58" s="16">
-        <v>145</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>146</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.16</v>
       </c>
       <c r="E58" s="16">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" s="16">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J58" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K58" s="16">
         <v>0</v>
@@ -3408,31 +3408,31 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>6072</v>
+        <v>5560</v>
       </c>
       <c r="C60" s="13">
-        <v>5216</v>
+        <v>4890</v>
       </c>
       <c r="D60" s="14">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E60" s="13">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="F60" s="13">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="G60" s="13">
-        <v>3826</v>
+        <v>3481</v>
       </c>
       <c r="H60" s="13">
-        <v>3124</v>
+        <v>2927</v>
       </c>
       <c r="I60" s="13">
-        <v>1567</v>
+        <v>1391</v>
       </c>
       <c r="J60" s="13">
-        <v>1509</v>
+        <v>1429</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
@@ -3446,31 +3446,31 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>5019</v>
+        <v>4558</v>
       </c>
       <c r="C61" s="16">
-        <v>4384</v>
+        <v>4091</v>
       </c>
       <c r="D61" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E61" s="16">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F61" s="16">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G61" s="16">
-        <v>3299</v>
+        <v>2989</v>
       </c>
       <c r="H61" s="16">
-        <v>2710</v>
+        <v>2520</v>
       </c>
       <c r="I61" s="16">
-        <v>1515</v>
+        <v>1343</v>
       </c>
       <c r="J61" s="16">
-        <v>1472</v>
+        <v>1390</v>
       </c>
       <c r="K61" s="16">
         <v>0</v>
@@ -3484,31 +3484,31 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="C62" s="16">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D62" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F62" s="16">
-        <v>122</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="G62" s="16">
+        <v>373</v>
       </c>
       <c r="H62" s="16">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J62" s="16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K62" s="16">
         <v>0</v>
@@ -3522,25 +3522,25 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C63" s="16">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="D63" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>14</v>
+        <v>0.42</v>
+      </c>
+      <c r="E63" s="16">
+        <v>332</v>
       </c>
       <c r="F63" s="16">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" s="16">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C64" s="13">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" s="14">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="13">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="J64" s="13">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>74</v>
       </c>
       <c r="B65" s="16">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C65" s="16">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" s="17">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="E65" s="16">
         <v>0</v>
@@ -3619,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="J65" s="16">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K65" s="16">
         <v>0</v>
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>29081</v>
+        <v>26480</v>
       </c>
       <c r="C67" s="13">
-        <v>23435</v>
+        <v>24602</v>
       </c>
       <c r="D67" s="14">
-        <v>0.24</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>2862</v>
+        <v>2417</v>
       </c>
       <c r="F67" s="13">
-        <v>2081</v>
+        <v>2123</v>
       </c>
       <c r="G67" s="13">
-        <v>23356</v>
+        <v>21537</v>
       </c>
       <c r="H67" s="13">
-        <v>18967</v>
+        <v>20052</v>
       </c>
       <c r="I67" s="13">
-        <v>2417</v>
+        <v>2091</v>
       </c>
       <c r="J67" s="13">
-        <v>1989</v>
+        <v>2020</v>
       </c>
       <c r="K67" s="13">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L67" s="13">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
